--- a/spreadsheet/macrofree/servicebus_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/servicebus_checklist.zh-Hant.xlsx
@@ -1983,12 +1983,12 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>如果可能，應用程式應使用託管標識向 Azure 服務總線進行身份驗證。如果沒有，請考慮在 Azure Key Vault 或等效服務中使用存儲憑據（SAS、服務主體憑據）</t>
+          <t>如果可能，請禁用 SAS 金鑰身份驗證（或本地身份驗證），並僅使用 Microsoft Entra ID 進行身份驗證</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>在 Azure 應用服務應用程式內或在啟用了 Azure 資源支援的託管實體的虛擬機中運行的服務總線用戶端應用不需要處理 SAS 規則和密鑰或任何其他存取權杖。用戶端應用程式只需要 Service Bus Messaging 命名空間的終結點位址。</t>
+          <t>Microsoft Entra ID 提供比共用訪問簽名 （SAS） 更高的安全性和易用性。使用 Microsoft Entra ID，無需將令牌存儲在代碼中，也無需冒潛在安全漏洞的風險。建議盡可能將 Microsoft Entra ID 與 Azure 服務總線應用程式一起使用。</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2004,7 +2004,7 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-bus-messaging/service-bus-managed-service-identity</t>
+          <t>https://learn.microsoft.com/en-us/azure/service-bus-messaging/disable-local-authentication</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
